--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0112768E-5AA1-4757-B49F-A6DDC3A731AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2CE17-7746-4798-B691-CBFAF3EE2640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,15 +874,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -894,15 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3899,8 +3899,8 @@
   </sheetPr>
   <dimension ref="B1:AS37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3936,69 +3936,69 @@
         <v>14</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="51"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="54"/>
       <c r="U2" s="16"/>
       <c r="V2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="17"/>
       <c r="AB2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
       <c r="AH2" s="45"/>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
     </row>
     <row r="3" spans="2:45" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="19" t="s">
@@ -4025,12 +4025,12 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27">
         <v>1</v>
       </c>
@@ -4525,17 +4525,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AJ2:AS2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:AL4">
     <cfRule type="expression" dxfId="8" priority="48">
@@ -4603,6 +4603,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8978ca4b-41cd-456f-ab81-1a82c2144eab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004790614C138BCA40A9D3A9FC7404D43D" ma:contentTypeVersion="9" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="30f9d4d6ac324e9860c8fe6ed6fe7e59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8978ca4b-41cd-456f-ab81-1a82c2144eab" xmlns:ns4="fc57c669-a916-49e5-8548-34cf2d879fe6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="945f5778fa4c58367ad3cf6ee6ed1fae" ns3:_="" ns4:_="">
     <xsd:import namespace="8978ca4b-41cd-456f-ab81-1a82c2144eab"/>
@@ -4797,38 +4814,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8978ca4b-41cd-456f-ab81-1a82c2144eab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D808D873-C44B-4B64-B5B3-881F7363B989}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2401E7EA-C037-42C3-9506-320CC94AB781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8978ca4b-41cd-456f-ab81-1a82c2144eab"/>
-    <ds:schemaRef ds:uri="fc57c669-a916-49e5-8548-34cf2d879fe6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4851,9 +4840,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2401E7EA-C037-42C3-9506-320CC94AB781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D808D873-C44B-4B64-B5B3-881F7363B989}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8978ca4b-41cd-456f-ab81-1a82c2144eab"/>
+    <ds:schemaRef ds:uri="fc57c669-a916-49e5-8548-34cf2d879fe6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2CE17-7746-4798-B691-CBFAF3EE2640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F919D-3A7D-45D1-A9AB-AFB0C61AB9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,28 +21,28 @@
     <definedName name="PercentagemDeConclusão">PercentagemDeConclusãoParaAlémDe*PeríodoNoPlano</definedName>
     <definedName name="PercentagemDeConclusãoParaAlémDe" localSheetId="0">(Dezembro!A$4=MEDIAN(Dezembro!A$4,Dezembro!$E1,Dezembro!$E1+Dezembro!$F1)*(Dezembro!$E1&gt;0))*((Dezembro!A$4&lt;(INT(Dezembro!$E1+Dezembro!$F1*Dezembro!$G1)))+(Dezembro!A$4=Dezembro!$E1))*(Dezembro!$G1&gt;0)</definedName>
     <definedName name="PercentagemDeConclusãoParaAlémDe" localSheetId="1">(Novembro!A$4=MEDIAN(Novembro!A$4,Novembro!$E1,Novembro!$E1+Novembro!$F1)*(Novembro!$E1&gt;0))*((Novembro!A$4&lt;(INT(Novembro!$E1+Novembro!$F1*Novembro!$G1)))+(Novembro!A$4=Novembro!$E1))*(Novembro!$G1&gt;0)</definedName>
-    <definedName name="PercentagemDeConclusãoParaAlémDe">(Setembro!A$4=MEDIAN(Setembro!A$4,Setembro!$E1,Setembro!$E1+Setembro!$F1)*(Setembro!$E1&gt;0))*((Setembro!A$4&lt;(INT(Setembro!$E1+Setembro!$F1*Setembro!$G1)))+(Setembro!A$4=Setembro!$E1))*(Setembro!$G1&gt;0)</definedName>
+    <definedName name="PercentagemDeConclusãoParaAlémDe">(Setembro!A$4=MEDIAN(Setembro!A$4,Setembro!$F1,Setembro!$F1+Setembro!$G1)*(Setembro!$F1&gt;0))*((Setembro!A$4&lt;(INT(Setembro!$F1+Setembro!$G1*Setembro!$H1)))+(Setembro!A$4=Setembro!$F1))*(Setembro!$H1&gt;0)</definedName>
     <definedName name="período_selecionado" localSheetId="0">Dezembro!$H$2</definedName>
     <definedName name="período_selecionado" localSheetId="1">Novembro!$H$2</definedName>
-    <definedName name="período_selecionado">Setembro!$H$2</definedName>
+    <definedName name="período_selecionado">Setembro!$I$2</definedName>
     <definedName name="PeríodoNoPlano" localSheetId="0">Dezembro!A$4=MEDIAN(Dezembro!A$4,Dezembro!$C1,Dezembro!$C1+Dezembro!$D1-1)</definedName>
     <definedName name="PeríodoNoPlano" localSheetId="1">Novembro!A$4=MEDIAN(Novembro!A$4,Novembro!$C1,Novembro!$C1+Novembro!$D1-1)</definedName>
-    <definedName name="PeríodoNoPlano">Setembro!A$4=MEDIAN(Setembro!A$4,Setembro!$C1,Setembro!$C1+Setembro!$D1-1)</definedName>
+    <definedName name="PeríodoNoPlano">Setembro!A$4=MEDIAN(Setembro!A$4,Setembro!$D1,Setembro!$D1+Setembro!$E1-1)</definedName>
     <definedName name="PeríodoReal" localSheetId="0">Dezembro!A$4=MEDIAN(Dezembro!A$4,Dezembro!$E1,Dezembro!$E1+Dezembro!$F1-1)</definedName>
     <definedName name="PeríodoReal" localSheetId="1">Novembro!A$4=MEDIAN(Novembro!A$4,Novembro!$E1,Novembro!$E1+Novembro!$F1-1)</definedName>
-    <definedName name="PeríodoReal">Setembro!A$4=MEDIAN(Setembro!A$4,Setembro!$E1,Setembro!$E1+Setembro!$F1-1)</definedName>
+    <definedName name="PeríodoReal">Setembro!A$4=MEDIAN(Setembro!A$4,Setembro!$F1,Setembro!$F1+Setembro!$G1-1)</definedName>
     <definedName name="Plano" localSheetId="0">Dezembro!PeríodoNoPlano*(Dezembro!$C1&gt;0)</definedName>
     <definedName name="Plano" localSheetId="1">Novembro!PeríodoNoPlano*(Novembro!$C1&gt;0)</definedName>
-    <definedName name="Plano">PeríodoNoPlano*(Setembro!$C1&gt;0)</definedName>
+    <definedName name="Plano">PeríodoNoPlano*(Setembro!$D1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Dezembro!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Novembro!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Setembro!$3:$4</definedName>
     <definedName name="Real" localSheetId="0">(Dezembro!PeríodoReal*(Dezembro!$E1&gt;0))*Dezembro!PeríodoNoPlano</definedName>
     <definedName name="Real" localSheetId="1">(Novembro!PeríodoReal*(Novembro!$E1&gt;0))*Novembro!PeríodoNoPlano</definedName>
-    <definedName name="Real">(PeríodoReal*(Setembro!$E1&gt;0))*PeríodoNoPlano</definedName>
+    <definedName name="Real">(PeríodoReal*(Setembro!$F1&gt;0))*PeríodoNoPlano</definedName>
     <definedName name="RealParaAlémDe" localSheetId="0">Dezembro!PeríodoReal*(Dezembro!$E1&gt;0)</definedName>
     <definedName name="RealParaAlémDe" localSheetId="1">Novembro!PeríodoReal*(Novembro!$E1&gt;0)</definedName>
-    <definedName name="RealParaAlémDe">PeríodoReal*(Setembro!$E1&gt;0)</definedName>
+    <definedName name="RealParaAlémDe">PeríodoReal*(Setembro!$F1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>Cronograma</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>Relatórios de consultas/médicos</t>
+  </si>
+  <si>
+    <t>AUTOR</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,6 +843,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2117,8 +2126,8 @@
   </sheetPr>
   <dimension ref="B1:AS30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2153,69 +2162,69 @@
         <v>14</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="45"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="47"/>
       <c r="AA2" s="17"/>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="45"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="47"/>
       <c r="AI2" s="18"/>
-      <c r="AJ2" s="35" t="s">
+      <c r="AJ2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
     </row>
     <row r="3" spans="2:45" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="23" t="s">
@@ -2242,12 +2251,12 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="26">
         <v>1</v>
       </c>
@@ -2706,8 +2715,8 @@
   </sheetPr>
   <dimension ref="B1:AR45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2742,68 +2751,68 @@
         <v>16</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="45"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="47"/>
       <c r="AA2" s="17"/>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="45"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="47"/>
       <c r="AI2" s="18"/>
-      <c r="AJ2" s="35" t="s">
+      <c r="AJ2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
     </row>
     <row r="3" spans="2:44" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="23" t="s">
@@ -2830,12 +2839,12 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="26">
         <v>1</v>
       </c>
@@ -3897,115 +3906,119 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AS37"/>
+  <dimension ref="B1:AT37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
-    <col min="8" max="27" width="3.5" style="1" customWidth="1"/>
-    <col min="28" max="38" width="3.5" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="28" width="3.5" style="1" customWidth="1"/>
+    <col min="29" max="39" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:46" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="2:45" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="2:46" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13">
         <v>14</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="52" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="35" t="s">
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="35" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="35" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-    </row>
-    <row r="3" spans="2:45" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+    </row>
+    <row r="3" spans="2:46" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="F3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="G3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="H3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -4023,206 +4036,212 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="27">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26">
+      <c r="AB3" s="9"/>
+    </row>
+    <row r="4" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="27">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26">
         <v>2</v>
       </c>
-      <c r="J4" s="26">
+      <c r="K4" s="26">
         <v>3</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>4</v>
       </c>
-      <c r="L4" s="25">
+      <c r="M4" s="25">
         <v>5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="25">
         <v>6</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O4" s="25">
         <v>7</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <v>8</v>
       </c>
-      <c r="P4" s="27">
+      <c r="Q4" s="27">
         <v>9</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="R4" s="27">
         <v>10</v>
       </c>
-      <c r="R4" s="27">
+      <c r="S4" s="27">
         <v>11</v>
       </c>
-      <c r="S4" s="27">
+      <c r="T4" s="27">
         <v>12</v>
       </c>
-      <c r="T4" s="27">
+      <c r="U4" s="27">
         <v>13</v>
       </c>
-      <c r="U4" s="27">
+      <c r="V4" s="27">
         <v>14</v>
       </c>
-      <c r="V4" s="27">
+      <c r="W4" s="27">
         <v>15</v>
       </c>
-      <c r="W4" s="25">
+      <c r="X4" s="25">
         <v>16</v>
       </c>
-      <c r="X4" s="25">
+      <c r="Y4" s="25">
         <v>17</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Z4" s="25">
         <v>18</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="AA4" s="25">
         <v>19</v>
       </c>
-      <c r="AA4" s="25">
+      <c r="AB4" s="25">
         <v>20</v>
       </c>
-      <c r="AB4" s="25">
+      <c r="AC4" s="25">
         <v>21</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AD4" s="25">
         <v>22</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AE4" s="27">
         <v>23</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AF4" s="27">
         <v>24</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AG4" s="27">
         <v>25</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AH4" s="27">
         <v>26</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AI4" s="27">
         <v>27</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AJ4" s="27">
         <v>28</v>
       </c>
-      <c r="AJ4" s="27">
+      <c r="AK4" s="27">
         <v>29</v>
       </c>
-      <c r="AK4" s="25">
+      <c r="AL4" s="25">
         <v>30</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AM4" s="25">
         <v>31</v>
       </c>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="30"/>
-      <c r="AR4" t="s">
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="30"/>
+      <c r="AS4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
       <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7">
+      <c r="G6" s="5"/>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>19</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>19</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>19</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>30</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>19</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7">
+      <c r="G8" s="5"/>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>30</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>19</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7">
+      <c r="G9" s="5"/>
+      <c r="H9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
@@ -4230,11 +4249,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="7">
+      <c r="G10" s="5"/>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
@@ -4242,11 +4262,12 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="7">
+      <c r="G11" s="5"/>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
@@ -4254,11 +4275,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="7">
+      <c r="G12" s="5"/>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
@@ -4266,11 +4288,12 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="7">
+      <c r="G13" s="5"/>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:45" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>68</v>
       </c>
@@ -4278,11 +4301,12 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="7">
+      <c r="G14" s="5"/>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:46" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
@@ -4290,11 +4314,12 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="7">
+      <c r="G15" s="5"/>
+      <c r="H15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:46" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
@@ -4302,11 +4327,12 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="7">
+      <c r="G16" s="5"/>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
@@ -4314,11 +4340,12 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="7">
+      <c r="G17" s="5"/>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
@@ -4326,11 +4353,12 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="7">
+      <c r="G18" s="5"/>
+      <c r="H18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>73</v>
       </c>
@@ -4338,11 +4366,12 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="7">
+      <c r="G19" s="5"/>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
@@ -4350,11 +4379,12 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="7">
+      <c r="G20" s="5"/>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>75</v>
       </c>
@@ -4362,11 +4392,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="7">
+      <c r="G21" s="5"/>
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
@@ -4374,11 +4405,12 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="7">
+      <c r="G22" s="5"/>
+      <c r="H22" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -4386,163 +4418,178 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="7">
+      <c r="G23" s="5"/>
+      <c r="H23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="7">
+      <c r="G24" s="5"/>
+      <c r="H24" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="7">
+      <c r="G25" s="5"/>
+      <c r="H25" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="7">
+      <c r="G26" s="5"/>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="7">
+      <c r="G27" s="5"/>
+      <c r="H27" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="7">
+      <c r="G28" s="5"/>
+      <c r="H28" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="7">
+      <c r="G29" s="5"/>
+      <c r="H29" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="7">
+      <c r="G30" s="5"/>
+      <c r="H30" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="7">
+      <c r="G31" s="5"/>
+      <c r="H31" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="7">
+      <c r="G32" s="5"/>
+      <c r="H32" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="7">
+      <c r="G33" s="5"/>
+      <c r="H33" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="7">
+      <c r="G34" s="5"/>
+      <c r="H34" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="7">
+      <c r="G35" s="5"/>
+      <c r="H35" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="7">
+      <c r="G36" s="5"/>
+      <c r="H36" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AJ2:AS2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="AK2:AT2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AC2:AI2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:AL4">
+  <conditionalFormatting sqref="I4:AM4">
     <cfRule type="expression" dxfId="8" priority="48">
-      <formula>H$4=período_selecionado</formula>
+      <formula>I$4=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:AL36">
+  <conditionalFormatting sqref="I5:AM36">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentagemDeConclusão</formula>
     </cfRule>
@@ -4559,7 +4606,7 @@
       <formula>Plano</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>H$4=período_selecionado</formula>
+      <formula>I$4=período_selecionado</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
@@ -4570,23 +4617,23 @@
   </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O planeador de projetos utiliza períodos para intervalos. Início=1 é o período 1 e duração=5 significa que o projeto abrange 5 períodos a contar do período de início. Introduza dados em B5 para atualizar o gráfico" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Introduza um valor de 1 a 60 ou selecione um período da lista. Prima CANCELAR, ALT+SETA PARA BAIXO e, em seguida, ENTER para selecionar um valor" prompt="Introduza um período num intervalo de 1 a 60 ou selecione um período a partir da lista. Prima ALT+SETA PARA BAIXO para navegar na lista e, em seguida, ENTER para selecionar um valor" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Introduza um valor de 1 a 60 ou selecione um período da lista. Prima CANCELAR, ALT+SETA PARA BAIXO e, em seguida, ENTER para selecionar um valor" prompt="Introduza um período num intervalo de 1 a 60 ou selecione um período a partir da lista. Prima ALT+SETA PARA BAIXO para navegar na lista e, em seguida, ENTER para selecionar um valor" sqref="I2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração do plano" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a percentagem de conclusão do projeto" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real para além do plano" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a percentagem de conclusão do projeto para além do plano" sqref="AI2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Os períodos estão traçados de 1 a 60, com início na célula H4 até à célula BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a atividade na coluna B, com início na célula B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de início do plano na coluna C, com início na célula C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de duração do plano na coluna D, com início na célula D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de início real do plano na coluna E, com início na célula E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de duração real do plano na coluna F, com início na célula F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a percentagem de conclusão do projeto na coluna G, com início na célula G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Título do projeto. Introduza um novo título nesta célula. Realce um período em H2. A legenda do gráfico está entre J2 e AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione um período para realçar em H2. Encontrará uma legenda do Gráfico entre J2 e AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração do plano" sqref="K2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real" sqref="Q2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a percentagem de conclusão do projeto" sqref="V2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real para além do plano" sqref="AB2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a percentagem de conclusão do projeto para além do plano" sqref="AJ2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Os períodos estão traçados de 1 a 60, com início na célula H4 até à célula BO4 " sqref="I3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a atividade na coluna B, com início na célula B5_x000a_" sqref="B3:C4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de início do plano na coluna C, com início na célula C5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de duração do plano na coluna D, com início na célula D5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de início real do plano na coluna E, com início na célula E5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de duração real do plano na coluna F, com início na célula F5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a percentagem de conclusão do projeto na coluna G, com início na célula G5" sqref="H3:H4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Título do projeto. Introduza um novo título nesta célula. Realce um período em H2. A legenda do gráfico está entre J2 e AI2" sqref="B1:C1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione um período para realçar em H2. Encontrará uma legenda do Gráfico entre J2 e AI2" sqref="B2:G2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
